--- a/com.crm.SDET_36/target/test-classes/TestData.xlsx
+++ b/com.crm.SDET_36/target/test-classes/TestData.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5306" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5392" uniqueCount="117">
   <si>
     <t>TestID</t>
   </si>
